--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F010EA7-D806-954C-B32D-F9088E7A7EDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01559B85-8AA8-4531-B8DD-A4A313B128DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="580" windowWidth="17640" windowHeight="11380" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,22 @@
   </si>
   <si>
     <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnAttr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,26 +514,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -544,7 +560,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -569,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1">
+    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -597,6 +613,24 @@
         <v>6</v>
       </c>
       <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01559B85-8AA8-4531-B8DD-A4A313B128DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77732891-CA3F-45BA-B8EB-F327F631C6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,42 @@
   </si>
   <si>
     <t>MaxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatureType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,6 +668,44 @@
         <v>22</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77732891-CA3F-45BA-B8EB-F327F631C6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DE66CC-7193-4BCC-ACC0-9DDA3A0065E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="28800" yWindow="360" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,25 @@
   </si>
   <si>
     <t>boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>最大血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -564,7 +583,7 @@
     <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
     <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -657,52 +676,81 @@
       <c r="G4" t="s">
         <v>23</v>
       </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>1001</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
         <v>21</v>
       </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>1002</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="b">
+      <c r="C15" t="b">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G15" t="s">
         <v>24</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G10" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
         <v>27</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G11" t="s">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
         <v>25</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G12" t="s">
+    <row r="18" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
         <v>26</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J18" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DE66CC-7193-4BCC-ACC0-9DDA3A0065E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46017C13-B7C7-4251-8318-BD5AF6907029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="360" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="28830" yWindow="30" windowWidth="28770" windowHeight="15570" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,30 @@
   </si>
   <si>
     <t>半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropConfigScript</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -738,7 +762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
         <v>25</v>
       </c>
@@ -746,12 +770,41 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G18" t="s">
         <v>26</v>
       </c>
       <c r="J18" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46017C13-B7C7-4251-8318-BD5AF6907029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E4CD5E-A2FC-4CC5-8CB2-6A47B572C323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28830" yWindow="30" windowWidth="28770" windowHeight="15570" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,10 @@
   </si>
   <si>
     <t>DropConfigScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +600,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,6 +744,17 @@
         <v>1004</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8">
+        <v>10002</v>
+      </c>
+    </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>28</v>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E4CD5E-A2FC-4CC5-8CB2-6A47B572C323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5A8F5D-65C8-4912-9A3A-C7E937DB6A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28830" yWindow="30" windowWidth="28770" windowHeight="15570" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,18 @@
   </si>
   <si>
     <t>能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -755,6 +767,14 @@
         <v>10002</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>28</v>
@@ -820,6 +840,28 @@
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5A8F5D-65C8-4912-9A3A-C7E937DB6A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D68E2FC-DF48-4CDF-B1C1-D4EA801193F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="30" windowWidth="28770" windowHeight="15570" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="2430" yWindow="1650" windowWidth="28770" windowHeight="15570" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,22 @@
   </si>
   <si>
     <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddAttr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalBullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyAtk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -864,6 +880,27 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D68E2FC-DF48-4CDF-B1C1-D4EA801193F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1DDED5-C14A-4C9B-8DB3-022541B3E313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="1650" windowWidth="28770" windowHeight="15570" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,18 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Castle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,18 +147,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Radius</t>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropConfigScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddAttr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalBullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHpBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadiusBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHpAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最大血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>基础最大血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHpPct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大血量百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHpFinalAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大血量A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHpFinalPct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大血量百分比A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkPct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkFinalAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkFinalPct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移动速度</t>
+    <t>攻击百分比A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeedBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeedAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeedPct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeedFinalAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeedFinalPct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础移速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移速百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移速A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移速百分比A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadiusAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadiusPct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadiusFinalAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadiusFinalPct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础半径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,59 +351,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Treasure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropConfigScript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpellType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpellKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddAttr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalBullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemyAtk</t>
+    <t>半径百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半径A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半径百分比A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -638,8 +767,8 @@
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -730,175 +859,354 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4">
-        <v>1001</v>
+        <v>9002</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I5">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6">
-        <v>1003</v>
+        <v>9003</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I7">
-        <v>1004</v>
+        <v>10011</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I8">
-        <v>10002</v>
+        <v>10012</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10">
+        <v>10014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11">
+        <v>10015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13">
+        <v>10022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14">
+        <v>10023</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
       <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15">
+        <v>10024</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16">
+        <v>10025</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18">
+        <v>10032</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19">
+        <v>10033</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20">
+        <v>10034</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21">
+        <v>10035</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22">
+        <v>10041</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23">
+        <v>10042</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24">
+        <v>10043</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25">
+        <v>10044</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26">
+        <v>10045</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
         <v>27</v>
       </c>
-      <c r="J16" t="s">
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" t="s">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G19" t="s">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
         <v>41</v>
       </c>
-      <c r="J19" t="s">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
         <v>43</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G36" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
